--- a/output/length.xlsx
+++ b/output/length.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952B64E-EEA6-F942-AE7D-6C4B7C2F5010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C53B8-B0C2-3E4A-9A9C-A5F76CC4A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="22240" windowHeight="10480" activeTab="4" xr2:uid="{CC6EA73F-6DE8-A045-960C-11B9E16F34AC}"/>
+    <workbookView xWindow="-26220" yWindow="500" windowWidth="26220" windowHeight="14580" activeTab="4" xr2:uid="{CC6EA73F-6DE8-A045-960C-11B9E16F34AC}"/>
   </bookViews>
   <sheets>
     <sheet name="short" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
     <sheet name="mix" sheetId="5" r:id="rId4"/>
     <sheet name="plots" sheetId="4" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>epoch</t>
   </si>
@@ -128,18 +125,34 @@
   <si>
     <t xml:space="preserve">    accuracy                           </t>
   </si>
+  <si>
+    <t>Run time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,14 +172,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -202,7 +219,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2640" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -216,11 +233,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Downstream</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Model Accuracy Summary</a:t>
+              <a:t>Data Length Accuracy &amp; Runtime Summary</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -238,7 +251,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2640" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -265,7 +278,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>short</c:v>
+            <c:v>short (5s)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -279,7 +292,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="4"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
                 <c:v>weighted avg precision</c:v>
               </c:pt>
@@ -292,14 +305,17 @@
               <c:pt idx="3">
                 <c:v>accuracy</c:v>
               </c:pt>
+              <c:pt idx="4">
+                <c:v>run time</c:v>
+              </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(short!$H$8:$J$8,short!$J$6)</c:f>
+              <c:f>(short!$H$8:$J$8,short!$J$6,short!$H$10)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.46</c:v>
                 </c:pt>
@@ -311,6 +327,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>3.4050925925925922E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -325,7 +344,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>medium</c:v>
+            <c:v>medium (10s)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -339,7 +358,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="4"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
                 <c:v>weighted avg precision</c:v>
               </c:pt>
@@ -352,14 +371,17 @@
               <c:pt idx="3">
                 <c:v>accuracy</c:v>
               </c:pt>
+              <c:pt idx="4">
+                <c:v>run time</c:v>
+              </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(medium!$H$8:$J$8,medium!$J$6)</c:f>
+              <c:f>(medium!$H$8:$J$8,medium!$J$6,medium!$H$10)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
@@ -372,6 +394,9 @@
                 <c:pt idx="3">
                   <c:v>0.52</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>5.1377314814814813E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -382,70 +407,10 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>mixed medium &amp; short </c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="4"/>
-              <c:pt idx="0">
-                <c:v>weighted avg precision</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>weighted avg recall</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>weighted avg f1-score</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>accuracy</c:v>
-              </c:pt>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>([1]xlsr!$H$9:$J$9,[1]xlsr!$J$8)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E13-CE4C-A8BB-6A782DE5B42A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>long</c:v>
+            <c:v>long (20s)</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -459,7 +424,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="4"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
                 <c:v>weighted avg precision</c:v>
               </c:pt>
@@ -472,14 +437,17 @@
               <c:pt idx="3">
                 <c:v>accuracy</c:v>
               </c:pt>
+              <c:pt idx="4">
+                <c:v>run time</c:v>
+              </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(long!$H$8:$J$8,long!$J$6)</c:f>
+              <c:f>(long!$H$8:$J$8,long!$J$6,long!$H$10)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.68</c:v>
                 </c:pt>
@@ -491,6 +459,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>0.31690972222222219</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,7 +480,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="300"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
         <c:axId val="114059023"/>
         <c:axId val="113687679"/>
       </c:barChart>
@@ -542,7 +514,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -585,20 +557,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -606,7 +564,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -638,7 +596,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -654,8 +612,8 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -670,7 +628,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -712,7 +670,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -736,37 +694,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -798,7 +725,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1358,16 +1285,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575468</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>129378</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>46761</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198436</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>141288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1395,114 +1322,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="dnn"/>
-      <sheetName val="dnn4"/>
-      <sheetName val="dnn6"/>
-      <sheetName val="lstm"/>
-      <sheetName val="xlsr"/>
-      <sheetName val="plots"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="J6">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>0.56000000000000005</v>
-          </cell>
-          <cell r="I8">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="J8">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="J6">
-            <v>0.54</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>0.6</v>
-          </cell>
-          <cell r="I8">
-            <v>0.54</v>
-          </cell>
-          <cell r="J8">
-            <v>0.52</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="6">
-          <cell r="J6">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>0.59</v>
-          </cell>
-          <cell r="I8">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="J8">
-            <v>0.54</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="J6">
-            <v>0.25</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>0.06</v>
-          </cell>
-          <cell r="I8">
-            <v>0.25</v>
-          </cell>
-          <cell r="J8">
-            <v>0.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="8">
-          <cell r="J8">
-            <v>0.63</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>0.65</v>
-          </cell>
-          <cell r="I9">
-            <v>0.63</v>
-          </cell>
-          <cell r="J9">
-            <v>0.62</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1804,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040AFB6E-A503-A248-A51D-44C07F7C64DE}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1858,13 +1677,13 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0.15</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>0.24</v>
       </c>
       <c r="K2">
@@ -1890,13 +1709,13 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.33</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.92</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.48</v>
       </c>
       <c r="K3">
@@ -1922,13 +1741,13 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0.5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.22</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>0.3</v>
       </c>
       <c r="K4">
@@ -1954,13 +1773,13 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.49</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.22</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.3</v>
       </c>
       <c r="K5">
@@ -1986,7 +1805,7 @@
       <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>0.38</v>
       </c>
       <c r="K6">
@@ -2012,13 +1831,13 @@
       <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.46</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.38</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>0.33</v>
       </c>
       <c r="K7">
@@ -2044,13 +1863,13 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0.46</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.38</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>0.33</v>
       </c>
       <c r="K8">
@@ -2089,6 +1908,12 @@
       </c>
       <c r="E10">
         <v>1.1798350811004601</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.4050925925925922E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3671,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F51284-DE17-2642-BBA2-0E233BADE3AF}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3725,13 +3550,13 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>0.56999999999999995</v>
       </c>
       <c r="K2">
@@ -3757,13 +3582,13 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.44</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.76</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.56000000000000005</v>
       </c>
       <c r="K3">
@@ -3789,13 +3614,13 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.44</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>0.5</v>
       </c>
       <c r="K4">
@@ -3821,13 +3646,13 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.62</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.41</v>
       </c>
       <c r="K5">
@@ -3853,7 +3678,7 @@
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>0.52</v>
       </c>
       <c r="K6">
@@ -3879,13 +3704,13 @@
       <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.52</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>0.51</v>
       </c>
       <c r="K7">
@@ -3911,13 +3736,13 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.52</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>0.51</v>
       </c>
       <c r="K8">
@@ -3956,6 +3781,12 @@
       </c>
       <c r="E10">
         <v>1.23044610023498</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.1377314814814813E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -5538,8 +5369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646FF764-BDCA-F74B-9597-1E72A891F2EE}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5592,13 +5423,13 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0.91</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0.38</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>0.53</v>
       </c>
       <c r="K2">
@@ -5624,13 +5455,13 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.44</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.86</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.57999999999999996</v>
       </c>
       <c r="K3">
@@ -5656,13 +5487,13 @@
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0.7</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>0.62</v>
       </c>
       <c r="K4">
@@ -5688,13 +5519,13 @@
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.64</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.62</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.63</v>
       </c>
       <c r="K5">
@@ -5720,7 +5551,7 @@
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>0.59</v>
       </c>
       <c r="K6">
@@ -5746,13 +5577,13 @@
       <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>0.67</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>0.6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>0.59</v>
       </c>
       <c r="K7">
@@ -5778,13 +5609,13 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>0.68</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>0.59</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>0.59</v>
       </c>
       <c r="K8">
@@ -5823,6 +5654,12 @@
       </c>
       <c r="E10">
         <v>1.03433537483215</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.31690972222222219</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -7405,8 +7242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEECFA2-CE14-E44C-B6F8-377D79A6CCBD}">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7476,13 +7313,13 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0.62</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>0.79</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>0.7</v>
       </c>
       <c r="K3">
@@ -7508,13 +7345,13 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0.67</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.61</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>0.64</v>
       </c>
       <c r="K4">
@@ -7540,13 +7377,13 @@
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>0.69</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>0.62</v>
       </c>
       <c r="K5">
@@ -7572,13 +7409,13 @@
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>0.73</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>0.43</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>0.54</v>
       </c>
       <c r="K6">
@@ -9272,8 +9109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584C1884-10D6-674F-B07E-EA7AA5799B3B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/length.xlsx
+++ b/output/length.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C53B8-B0C2-3E4A-9A9C-A5F76CC4A099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64934B0E-ACA5-324D-A0B4-A1F15527D71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26220" yWindow="500" windowWidth="26220" windowHeight="14580" activeTab="4" xr2:uid="{CC6EA73F-6DE8-A045-960C-11B9E16F34AC}"/>
   </bookViews>
@@ -738,7 +738,1182 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>Data Length Weighted Average Summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>short (5s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0570906424258576E-3"/>
+                  <c:y val="-2.098360569062176E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7632205506507354E-3"/>
+                  <c:y val="2.0983605690621681E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.521358535070094E-2"/>
+                      <c:h val="8.3619668677127418E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.0570906424258576E-3"/>
+                  <c:y val="2.0983605690621681E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.293870091775132E-2"/>
+                  <c:y val="-8.3934422762486725E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3725516564899199E-2"/>
+                  <c:y val="3.1994381019981526E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="9.289681620341024E-2"/>
+                      <c:h val="0.10482632844398798"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Precision</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Recall</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>F1-Score</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Accuracy</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Runtime</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(short!$H$8:$J$8,short!$J$6,short!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>3.4050925925925922E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26A3-BF40-A978-300777EE47A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>medium (10s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5382569153420925E-3"/>
+                  <c:y val="-3.357376910499469E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1644830825976102E-2"/>
+                  <c:y val="-2.0983605690621681E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2938700917751225E-2"/>
+                  <c:y val="2.09836056906213E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.248085428842554E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.2384885804249203E-3"/>
+                  <c:y val="-2.098360569062176E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="9.1147137073005036E-2"/>
+                      <c:h val="9.521815019106647E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Precision</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Recall</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>F1-Score</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Accuracy</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Runtime</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(medium!$H$8:$J$8,medium!$J$6,medium!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>5.1377314814814813E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26A3-BF40-A978-300777EE47A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>long (20s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1794189717806831E-3"/>
+                  <c:y val="-1.8885245121559514E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5382569153419629E-3"/>
+                  <c:y val="-2.0983605690622067E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0765138306840983E-3"/>
+                  <c:y val="2.0983605690621681E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="8.3362633072356696E-2"/>
+                      <c:h val="6.0296969240347213E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-26A3-BF40-A978-300777EE47A5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>Precision</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Recall</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>F1-Score</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Accuracy</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Runtime</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(long!$H$8:$J$8,long!$J$6,long!$H$10)</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>0.31690972222222219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-26A3-BF40-A978-300777EE47A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="114059023"/>
+        <c:axId val="113687679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="114059023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113687679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113687679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2600"/>
+                  <a:t>Accuracy (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="114059023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1281,6 +2456,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1316,6 +2994,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7142</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE51D37C-C24C-A749-A678-81B98B538F3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9109,8 +10825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584C1884-10D6-674F-B07E-EA7AA5799B3B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="64" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/output/length.xlsx
+++ b/output/length.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myounes/Documents/Code/thesis/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64934B0E-ACA5-324D-A0B4-A1F15527D71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70B51A8-9FAE-FA4C-8189-AE8B1A0A4502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26220" yWindow="500" windowWidth="26220" windowHeight="14580" activeTab="4" xr2:uid="{CC6EA73F-6DE8-A045-960C-11B9E16F34AC}"/>
+    <workbookView xWindow="-36520" yWindow="4240" windowWidth="26220" windowHeight="14580" activeTab="4" xr2:uid="{CC6EA73F-6DE8-A045-960C-11B9E16F34AC}"/>
   </bookViews>
   <sheets>
     <sheet name="short" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="long" sheetId="3" r:id="rId3"/>
     <sheet name="mix" sheetId="5" r:id="rId4"/>
     <sheet name="plots" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>epoch</t>
   </si>
@@ -128,6 +129,33 @@
   <si>
     <t>Run time</t>
   </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>GLF</t>
+  </si>
+  <si>
+    <t>LEV</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short (5s) </t>
+  </si>
+  <si>
+    <t>Medium (10s)</t>
+  </si>
+  <si>
+    <t>Long (20s)</t>
+  </si>
+  <si>
+    <t>F-1 Score (%)</t>
+  </si>
 </sst>
 </file>
 
@@ -176,10 +204,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,7 +805,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2800"/>
-              <a:t>Data Length Weighted Average Summary</a:t>
+              <a:t>Utterance Length Weighted Average Summary</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -832,13 +864,37 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.0570906424258576E-3"/>
-                  <c:y val="-2.098360569062176E-2"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -846,18 +902,25 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.521358535070094E-2"/>
+                      <c:h val="8.3619668677127418E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-26A3-BF40-A978-300777EE47A5}"/>
+                  <c16:uniqueId val="{00000007-26A3-BF40-A978-300777EE47A5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="1"/>
+              <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-7.7632205506507354E-3"/>
-                  <c:y val="2.0983605690621681E-3"/>
+                  <c:x val="-1.769123814289246E-2"/>
+                  <c:y val="3.0379746835443037E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -889,6 +952,7 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -899,107 +963,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="7.521358535070094E-2"/>
-                      <c:h val="8.3619668677127418E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.0570906424258576E-3"/>
-                  <c:y val="2.0983605690621681E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.293870091775132E-2"/>
-                  <c:y val="-8.3934422762486725E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.3725516564899199E-2"/>
-                  <c:y val="3.1994381019981526E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="2200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="9.289681620341024E-2"/>
-                      <c:h val="0.10482632844398798"/>
+                      <c:w val="8.1102606293045304E-2"/>
+                      <c:h val="0.10482639290341872"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1037,6 +1002,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1132,97 +1098,7 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.5382569153420925E-3"/>
-                  <c:y val="-3.357376910499469E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.1644830825976102E-2"/>
-                  <c:y val="-2.0983605690621681E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.2938700917751225E-2"/>
-                  <c:y val="2.09836056906213E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.248085428842554E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="4"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.2384885804249203E-3"/>
-                  <c:y val="-2.098360569062176E-2"/>
-                </c:manualLayout>
-              </c:layout>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1252,6 +1128,7 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1262,8 +1139,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="9.1147137073005036E-2"/>
-                      <c:h val="9.521815019106647E-2"/>
+                      <c:w val="8.1711817982406024E-2"/>
+                      <c:h val="9.5218100269111913E-2"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -1301,6 +1178,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1396,69 +1274,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.1794189717806831E-3"/>
-                  <c:y val="-1.8885245121559514E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="3.5382569153419629E-3"/>
-                  <c:y val="-2.0983605690622067E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.0765138306840983E-3"/>
-                  <c:y val="2.0983605690621681E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-26A3-BF40-A978-300777EE47A5}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
@@ -1489,6 +1304,7 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1538,6 +1354,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3004,13 +2821,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>7142</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>99219</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>773906</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3340,7 +3157,7 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5213,7 +5030,7 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7086,7 +6903,7 @@
   <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J2" sqref="J2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10823,15 +10640,151 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584C1884-10D6-674F-B07E-EA7AA5799B3B}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C50" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="3">
+        <f>0.24*100</f>
+        <v>24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(B3:D3)</f>
+        <v>44.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="3">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3">
+        <v>56</v>
+      </c>
+      <c r="D4" s="3">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="0">AVERAGE(B4:D4)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3">
+        <v>62</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>47.333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3">
+        <v>41</v>
+      </c>
+      <c r="D6" s="3">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>44.666666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B3:B6)</f>
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="1">AVERAGE(C3:C6)</f>
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D6373A-6BA6-B948-B0FD-D4CF6EDB72BD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="64" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>